--- a/js/inversionistas/inversionistas_input.xlsx
+++ b/js/inversionistas/inversionistas_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Israel Cano\workspace\okysoft\Planigrupo\Sitio Web\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Israel Cano\workspace\okysoft\Planigrupo\Sitio Web\js\inversionistas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA8C05E-800F-4155-BEB9-FBF5083C8073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC16D9F7-600A-4C2E-8D7D-4E294BE8723B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="885" windowWidth="20610" windowHeight="14160" xr2:uid="{562CD49C-6CFB-B54D-B1A7-F1CF16783197}"/>
+    <workbookView xWindow="4005" yWindow="2235" windowWidth="20610" windowHeight="12555" xr2:uid="{562CD49C-6CFB-B54D-B1A7-F1CF16783197}"/>
   </bookViews>
   <sheets>
     <sheet name="Res Fin 2do trim 2023" sheetId="1" r:id="rId1"/>
@@ -1226,7 +1226,7 @@
     <t>59.6%</t>
   </si>
   <si>
-    <t>9.40%</t>
+    <t>Hola</t>
   </si>
 </sst>
 </file>
